--- a/static/course-materials/class-sessions/03-spreadsheets/examples/untidy-portal-data.xlsx
+++ b/static/course-materials/class-sessions/03-spreadsheets/examples/untidy-portal-data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobruna/Dropbox (UFL)/Teaching/LAS 6292 - Data Collection &amp; Management/LAS6292_DataManagement/class_outlines/wk3_spreadsheets/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/emiliobruna/Dropbox (UFL)/Teaching/LAS 6292 - Data Collection &amp; Management/LAS6292_DataManagement/static/course-materials/class-sessions/03-spreadsheets/examples/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9CA0C3-BF2C-C24C-AD27-E101E5ABF1CF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{08D2BD6F-9855-B04F-843B-68144FE5FA8F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3440" yWindow="3240" windowWidth="36060" windowHeight="23600" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1400" yWindow="3420" windowWidth="27880" windowHeight="17500" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -568,8 +568,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A3:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F1" zoomScale="133" zoomScaleNormal="133" workbookViewId="0">
-      <selection activeCell="Q20" sqref="Q20"/>
+    <sheetView tabSelected="1" zoomScale="140" zoomScaleNormal="140" workbookViewId="0">
+      <selection activeCell="L18" sqref="L18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.5" defaultRowHeight="13" x14ac:dyDescent="0.15"/>
@@ -997,7 +997,7 @@
         <v>11</v>
       </c>
       <c r="L15">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="N15" s="2" t="s">
         <v>25</v>
@@ -1034,7 +1034,7 @@
         <v>26</v>
       </c>
       <c r="L17">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="N17" s="2" t="s">
         <v>25</v>
